--- a/Code/Results/Cases/Case_4_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_185/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.637490320761231</v>
+        <v>3.952283258933164</v>
       </c>
       <c r="C2">
-        <v>0.190422399869675</v>
+        <v>0.1296783303549205</v>
       </c>
       <c r="D2">
-        <v>0.2020144115082303</v>
+        <v>0.4128363259067811</v>
       </c>
       <c r="E2">
-        <v>0.03099644864147155</v>
+        <v>0.09055545280074817</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0009120617369249769</v>
+        <v>0.002801644214518938</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01813889291581106</v>
+        <v>0.01658575960190589</v>
       </c>
       <c r="K2">
-        <v>2.448419627498765</v>
+        <v>3.316374157980533</v>
       </c>
       <c r="L2">
-        <v>0.2651844561664376</v>
+        <v>0.5501803914211365</v>
       </c>
       <c r="M2">
-        <v>0.5132218754755442</v>
+        <v>0.8499319006861441</v>
       </c>
       <c r="N2">
-        <v>6.138676543378324</v>
+        <v>8.165284513734179</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.41754684820387</v>
+        <v>3.919779709163947</v>
       </c>
       <c r="C3">
-        <v>0.1665441692524183</v>
+        <v>0.1241628124187883</v>
       </c>
       <c r="D3">
-        <v>0.1910775866623879</v>
+        <v>0.4123556489398794</v>
       </c>
       <c r="E3">
-        <v>0.03088480975588581</v>
+        <v>0.09086679630885008</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0009216856011247477</v>
+        <v>0.002807480157546356</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01629629221008599</v>
+        <v>0.01595156025396527</v>
       </c>
       <c r="K3">
-        <v>2.225572971402045</v>
+        <v>3.279550891548979</v>
       </c>
       <c r="L3">
-        <v>0.2511870681050183</v>
+        <v>0.5496944244020483</v>
       </c>
       <c r="M3">
-        <v>0.4746557029471248</v>
+        <v>0.8451357118398874</v>
       </c>
       <c r="N3">
-        <v>5.935483770795827</v>
+        <v>8.092704647791493</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.28678836287483</v>
+        <v>3.90172865468341</v>
       </c>
       <c r="C4">
-        <v>0.1522254586891734</v>
+        <v>0.1208596785845941</v>
       </c>
       <c r="D4">
-        <v>0.1846523832606266</v>
+        <v>0.4122216901707532</v>
       </c>
       <c r="E4">
-        <v>0.0308415904955508</v>
+        <v>0.0910780728974947</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009277567035275322</v>
+        <v>0.00281125188906766</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01517652331645536</v>
+        <v>0.01555603837699771</v>
       </c>
       <c r="K4">
-        <v>2.092843435912101</v>
+        <v>3.258633361046265</v>
       </c>
       <c r="L4">
-        <v>0.2429813854610003</v>
+        <v>0.549610162436224</v>
       </c>
       <c r="M4">
-        <v>0.4517938814998033</v>
+        <v>0.8425781711422715</v>
       </c>
       <c r="N4">
-        <v>5.813818682800161</v>
+        <v>8.048630425926319</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.234488567243744</v>
+        <v>3.894851773449716</v>
       </c>
       <c r="C5">
-        <v>0.1464663499977661</v>
+        <v>0.1195344658118103</v>
       </c>
       <c r="D5">
-        <v>0.1821020672970945</v>
+        <v>0.4122076578791649</v>
       </c>
       <c r="E5">
-        <v>0.03083017182656533</v>
+        <v>0.09116923855043346</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009302732436052754</v>
+        <v>0.002812836447537163</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01472241263973295</v>
+        <v>0.01539330295693553</v>
       </c>
       <c r="K5">
-        <v>2.039691704518589</v>
+        <v>3.250534314779969</v>
       </c>
       <c r="L5">
-        <v>0.239728581149798</v>
+        <v>0.5496296987278839</v>
       </c>
       <c r="M5">
-        <v>0.4426664721250617</v>
+        <v>0.8416333313432958</v>
       </c>
       <c r="N5">
-        <v>5.764949197342474</v>
+        <v>8.030792341145144</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.225861167937524</v>
+        <v>3.893738799751986</v>
       </c>
       <c r="C6">
-        <v>0.1455143534768268</v>
+        <v>0.1193156700963272</v>
       </c>
       <c r="D6">
-        <v>0.1816825601045622</v>
+        <v>0.4122077782057403</v>
       </c>
       <c r="E6">
-        <v>0.03082864499610594</v>
+        <v>0.09118468302503135</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009306937306361886</v>
+        <v>0.002813102438798022</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0146471213716346</v>
+        <v>0.01536618630131237</v>
       </c>
       <c r="K6">
-        <v>2.030919863665872</v>
+        <v>3.249215130910812</v>
       </c>
       <c r="L6">
-        <v>0.2391937713574208</v>
+        <v>0.5496361974991544</v>
       </c>
       <c r="M6">
-        <v>0.4411618230883789</v>
+        <v>0.8414823223546435</v>
       </c>
       <c r="N6">
-        <v>5.756875439323863</v>
+        <v>8.027837719570897</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.286079157080962</v>
+        <v>3.901633971285776</v>
       </c>
       <c r="C7">
-        <v>0.1521474950410493</v>
+        <v>0.1208417220931466</v>
       </c>
       <c r="D7">
-        <v>0.1846177196767798</v>
+        <v>0.4122213366739231</v>
       </c>
       <c r="E7">
-        <v>0.03084141164274801</v>
+        <v>0.091079281850309</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009277904679483825</v>
+        <v>0.002811273066102433</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01517039099300099</v>
+        <v>0.01555384999792153</v>
       </c>
       <c r="K7">
-        <v>2.092122939509466</v>
+        <v>3.258522414224785</v>
       </c>
       <c r="L7">
-        <v>0.2429371566655902</v>
+        <v>0.5496102077351708</v>
       </c>
       <c r="M7">
-        <v>0.4516700420383302</v>
+        <v>0.8425650344462667</v>
       </c>
       <c r="N7">
-        <v>5.813156823591129</v>
+        <v>8.048389360228668</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.560705524233015</v>
+        <v>3.940680200131681</v>
       </c>
       <c r="C8">
-        <v>0.1821116072423905</v>
+        <v>0.1277591831280063</v>
       </c>
       <c r="D8">
-        <v>0.1981800960653004</v>
+        <v>0.4126371507262263</v>
       </c>
       <c r="E8">
-        <v>0.03095258845309612</v>
+        <v>0.09065863715477374</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0009153475334433724</v>
+        <v>0.00280361743547976</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01750070946607352</v>
+        <v>0.01636834714103941</v>
       </c>
       <c r="K8">
-        <v>2.37067209048584</v>
+        <v>3.303325986838274</v>
       </c>
       <c r="L8">
-        <v>0.2602732653941402</v>
+        <v>0.5499684050434794</v>
       </c>
       <c r="M8">
-        <v>0.4997439788563796</v>
+        <v>0.8481977653880435</v>
       </c>
       <c r="N8">
-        <v>6.067930048725827</v>
+        <v>8.140156793295091</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.137913946988135</v>
+        <v>4.032397241760975</v>
       </c>
       <c r="C9">
-        <v>0.2441052770701617</v>
+        <v>0.1419931556691552</v>
       </c>
       <c r="D9">
-        <v>0.2273236877572344</v>
+        <v>0.4147307766628501</v>
       </c>
       <c r="E9">
-        <v>0.03138037320640308</v>
+        <v>0.08999281629069333</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008921443141010981</v>
+        <v>0.00279009248910179</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02219819237824439</v>
+        <v>0.01791786871955736</v>
       </c>
       <c r="K9">
-        <v>2.954145793663457</v>
+        <v>3.404642897330149</v>
       </c>
       <c r="L9">
-        <v>0.2976884998673626</v>
+        <v>0.552369154997578</v>
       </c>
       <c r="M9">
-        <v>0.6013436193706099</v>
+        <v>0.8623196122187338</v>
       </c>
       <c r="N9">
-        <v>6.59552686504037</v>
+        <v>8.324043949240632</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.59282538603378</v>
+        <v>4.109061144341638</v>
       </c>
       <c r="C10">
-        <v>0.2924329452516474</v>
+        <v>0.1528695793555244</v>
       </c>
       <c r="D10">
-        <v>0.2506732234149069</v>
+        <v>0.4170480962009577</v>
       </c>
       <c r="E10">
-        <v>0.03183635154587705</v>
+        <v>0.08959994715350561</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008756903341331599</v>
+        <v>0.002781052219978708</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02578343977059205</v>
+        <v>0.01902849221183089</v>
       </c>
       <c r="K10">
-        <v>3.412901641113081</v>
+        <v>3.487341488136622</v>
       </c>
       <c r="L10">
-        <v>0.3277848649207726</v>
+        <v>0.5551684916009947</v>
       </c>
       <c r="M10">
-        <v>0.6817635217541209</v>
+        <v>0.8745765537953787</v>
       </c>
       <c r="N10">
-        <v>7.005546978682219</v>
+        <v>8.461616241506078</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.808341771169637</v>
+        <v>4.145963521021713</v>
       </c>
       <c r="C11">
-        <v>0.3152319403746731</v>
+        <v>0.157910946748558</v>
       </c>
       <c r="D11">
-        <v>0.2618149655404665</v>
+        <v>0.4182715475174632</v>
       </c>
       <c r="E11">
-        <v>0.03207811241340686</v>
+        <v>0.08944199746583692</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008682991453666531</v>
+        <v>0.002777132005531268</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02745812576003104</v>
+        <v>0.01952798437619663</v>
       </c>
       <c r="K11">
-        <v>3.630032943890171</v>
+        <v>3.526770639874485</v>
       </c>
       <c r="L11">
-        <v>0.3421772589798593</v>
+        <v>0.5566669772687476</v>
       </c>
       <c r="M11">
-        <v>0.7199391735613716</v>
+        <v>0.8805627496737216</v>
       </c>
       <c r="N11">
-        <v>7.198303550543699</v>
+        <v>8.524754685357948</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.891364730749615</v>
+        <v>4.160229737542863</v>
       </c>
       <c r="C12">
-        <v>0.3240027040120879</v>
+        <v>0.1598336236881153</v>
       </c>
       <c r="D12">
-        <v>0.266118260559125</v>
+        <v>0.4187591751703934</v>
       </c>
       <c r="E12">
-        <v>0.03217493985077091</v>
+        <v>0.08938516147386721</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008655104889472023</v>
+        <v>0.002775674997118719</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02809998514009138</v>
+        <v>0.01971632512633548</v>
       </c>
       <c r="K12">
-        <v>3.71365132819119</v>
+        <v>3.541962475806315</v>
       </c>
       <c r="L12">
-        <v>0.3477410673170596</v>
+        <v>0.557266776048067</v>
       </c>
       <c r="M12">
-        <v>0.7346565742796045</v>
+        <v>0.8828886830557749</v>
       </c>
       <c r="N12">
-        <v>7.272322456285224</v>
+        <v>8.548744594714321</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.873418373840479</v>
+        <v>4.157144253246145</v>
       </c>
       <c r="C13">
-        <v>0.3221073069084639</v>
+        <v>0.1594189325026321</v>
       </c>
       <c r="D13">
-        <v>0.2651875632764273</v>
+        <v>0.4186530737560332</v>
       </c>
       <c r="E13">
-        <v>0.0321538456923065</v>
+        <v>0.08939726992100816</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008661106776689916</v>
+        <v>0.002775987569637373</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02796138269836845</v>
+        <v>0.01967579812763631</v>
       </c>
       <c r="K13">
-        <v>3.695577396068131</v>
+        <v>3.538679028023466</v>
       </c>
       <c r="L13">
-        <v>0.3465375208444215</v>
+        <v>0.5571361597566806</v>
       </c>
       <c r="M13">
-        <v>0.7314747481663915</v>
+        <v>0.8823851224518222</v>
       </c>
       <c r="N13">
-        <v>7.256333281640025</v>
+        <v>8.543574334514176</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.815142723127451</v>
+        <v>4.14713135427445</v>
       </c>
       <c r="C14">
-        <v>0.3159506397957159</v>
+        <v>0.1580688526526046</v>
       </c>
       <c r="D14">
-        <v>0.262167255381442</v>
+        <v>0.4183111773190404</v>
       </c>
       <c r="E14">
-        <v>0.03208597057885143</v>
+        <v>0.08943726194728718</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000868069536073246</v>
+        <v>0.002777011586600574</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02751076902745808</v>
+        <v>0.01954349533059485</v>
       </c>
       <c r="K14">
-        <v>3.636883184576902</v>
+        <v>3.52801524888082</v>
       </c>
       <c r="L14">
-        <v>0.3426326379939439</v>
+        <v>0.5567156746720201</v>
       </c>
       <c r="M14">
-        <v>0.7211445506615703</v>
+        <v>0.8807529209312293</v>
       </c>
       <c r="N14">
-        <v>7.204371763874974</v>
+        <v>8.526726726763286</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.779636732773611</v>
+        <v>4.141036218963279</v>
       </c>
       <c r="C15">
-        <v>0.3121980262956754</v>
+        <v>0.1572436682618843</v>
       </c>
       <c r="D15">
-        <v>0.2603284890879394</v>
+        <v>0.4181049244942301</v>
       </c>
       <c r="E15">
-        <v>0.032045093309927</v>
+        <v>0.08946214549296272</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008692706215464728</v>
+        <v>0.002777642402179791</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02723580181609719</v>
+        <v>0.01946235162899868</v>
       </c>
       <c r="K15">
-        <v>3.601118818886675</v>
+        <v>3.521517371281277</v>
       </c>
       <c r="L15">
-        <v>0.3402560047811392</v>
+        <v>0.5564623287802419</v>
       </c>
       <c r="M15">
-        <v>0.7148520368143068</v>
+        <v>0.8797608478784866</v>
       </c>
       <c r="N15">
-        <v>7.172681594989513</v>
+        <v>8.516417620055108</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.57892817099389</v>
+        <v>4.106690331470247</v>
       </c>
       <c r="C16">
-        <v>0.2909610288993747</v>
+        <v>0.1525420115250995</v>
       </c>
       <c r="D16">
-        <v>0.2499563226751604</v>
+        <v>0.4169715463972068</v>
       </c>
       <c r="E16">
-        <v>0.03182127092627773</v>
+        <v>0.0896106865633044</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008761749837895748</v>
+        <v>0.00278131227065477</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0256749908336289</v>
+        <v>0.01899573539953181</v>
       </c>
       <c r="K16">
-        <v>3.39889644906475</v>
+        <v>3.484801165804924</v>
       </c>
       <c r="L16">
-        <v>0.3268594639774136</v>
+        <v>0.5550750899796242</v>
       </c>
       <c r="M16">
-        <v>0.6793033471995074</v>
+        <v>0.8741936068820024</v>
       </c>
       <c r="N16">
-        <v>6.993086067660499</v>
+        <v>8.457501252859515</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.458116130931387</v>
+        <v>4.086139917788842</v>
       </c>
       <c r="C17">
-        <v>0.2781549415395546</v>
+        <v>0.1496817885283974</v>
       </c>
       <c r="D17">
-        <v>0.2437328169831119</v>
+        <v>0.4163196069861357</v>
       </c>
       <c r="E17">
-        <v>0.03169298586505676</v>
+        <v>0.08970712358716604</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008804324154583921</v>
+        <v>0.002783612746464328</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02472962592992545</v>
+        <v>0.01870802561606411</v>
       </c>
       <c r="K17">
-        <v>3.277123505387465</v>
+        <v>3.462740831486542</v>
       </c>
       <c r="L17">
-        <v>0.3188294067999209</v>
+        <v>0.554281699267122</v>
       </c>
       <c r="M17">
-        <v>0.6579247842510441</v>
+        <v>0.8708834583621368</v>
       </c>
       <c r="N17">
-        <v>6.884594368319313</v>
+        <v>8.42150095855385</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.389423392583808</v>
+        <v>4.074510676034208</v>
       </c>
       <c r="C18">
-        <v>0.2708645281589099</v>
+        <v>0.148045467042067</v>
       </c>
       <c r="D18">
-        <v>0.2402015304173943</v>
+        <v>0.4159605636821198</v>
       </c>
       <c r="E18">
-        <v>0.03162240856909193</v>
+        <v>0.08976454704810877</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008828902251077865</v>
+        <v>0.002784954023879151</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02418989956935036</v>
+        <v>0.01854200152723351</v>
       </c>
       <c r="K18">
-        <v>3.20786525673202</v>
+        <v>3.450222551553338</v>
       </c>
       <c r="L18">
-        <v>0.3142758887964874</v>
+        <v>0.5538465453113588</v>
       </c>
       <c r="M18">
-        <v>0.6457761157744883</v>
+        <v>0.8690181777167254</v>
       </c>
       <c r="N18">
-        <v>6.822771165149391</v>
+        <v>8.400846838655468</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.366296708955815</v>
+        <v>4.070605971357168</v>
       </c>
       <c r="C19">
-        <v>0.2684084829360529</v>
+        <v>0.1474929439109474</v>
       </c>
       <c r="D19">
-        <v>0.2390139274137368</v>
+        <v>0.415841734993748</v>
       </c>
       <c r="E19">
-        <v>0.03159905375512295</v>
+        <v>0.08978432581081996</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008837240439929164</v>
+        <v>0.002785411271413802</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02400780867339236</v>
+        <v>0.0184856951316803</v>
       </c>
       <c r="K19">
-        <v>3.18454481144795</v>
+        <v>3.446013294650697</v>
       </c>
       <c r="L19">
-        <v>0.3127449715590842</v>
+        <v>0.5537028481998618</v>
       </c>
       <c r="M19">
-        <v>0.6416872424569178</v>
+        <v>0.8683932583471119</v>
       </c>
       <c r="N19">
-        <v>6.80193454124651</v>
+        <v>8.393862666935945</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.47089326351437</v>
+        <v>4.088307792327953</v>
       </c>
       <c r="C20">
-        <v>0.2795102397190021</v>
+        <v>0.1499853519304395</v>
       </c>
       <c r="D20">
-        <v>0.2443902556760378</v>
+        <v>0.4163873579202431</v>
       </c>
       <c r="E20">
-        <v>0.03170630759272797</v>
+        <v>0.08969665539662763</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008799782906516855</v>
+        <v>0.002783365984276483</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02482983576376441</v>
+        <v>0.01873870867305882</v>
       </c>
       <c r="K20">
-        <v>3.290004233990317</v>
+        <v>3.465071567337873</v>
       </c>
       <c r="L20">
-        <v>0.3196773885374995</v>
+        <v>0.5543639647252121</v>
       </c>
       <c r="M20">
-        <v>0.6601850610499298</v>
+        <v>0.8712318308663498</v>
       </c>
       <c r="N20">
-        <v>6.896082751858557</v>
+        <v>8.425327833144252</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.832219844376198</v>
+        <v>4.150064453934704</v>
       </c>
       <c r="C21">
-        <v>0.3177551020781664</v>
+        <v>0.1584650329092483</v>
       </c>
       <c r="D21">
-        <v>0.2630520280406046</v>
+        <v>0.4184109402702632</v>
       </c>
       <c r="E21">
-        <v>0.03210576096937068</v>
+        <v>0.0894254346302148</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008674939224364398</v>
+        <v>0.002776710063091518</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02764290427750993</v>
+        <v>0.0195823775966204</v>
       </c>
       <c r="K21">
-        <v>3.654083656535477</v>
+        <v>3.531140373451365</v>
       </c>
       <c r="L21">
-        <v>0.3437763994669183</v>
+        <v>0.5568383032835555</v>
       </c>
       <c r="M21">
-        <v>0.7241714163081312</v>
+        <v>0.8812307337993843</v>
       </c>
       <c r="N21">
-        <v>7.219605157121805</v>
+        <v>8.531673079714437</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.076696035742941</v>
+        <v>4.192128774742343</v>
       </c>
       <c r="C22">
-        <v>0.3435619351220396</v>
+        <v>0.1640864602659065</v>
       </c>
       <c r="D22">
-        <v>0.2757443943145859</v>
+        <v>0.419875297135718</v>
       </c>
       <c r="E22">
-        <v>0.03239778172683749</v>
+        <v>0.08926551862386845</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008593924481910757</v>
+        <v>0.002772520205481997</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02952704062071021</v>
+        <v>0.02012907428054334</v>
       </c>
       <c r="K22">
-        <v>3.900266988625276</v>
+        <v>3.575841072545927</v>
       </c>
       <c r="L22">
-        <v>0.3601965935923488</v>
+        <v>0.5586440132258446</v>
       </c>
       <c r="M22">
-        <v>0.7675302611573898</v>
+        <v>0.8881100576827947</v>
       </c>
       <c r="N22">
-        <v>7.437099654591862</v>
+        <v>8.601646893559519</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.945387103588246</v>
+        <v>4.169522270709479</v>
       </c>
       <c r="C23">
-        <v>0.3297066758137817</v>
+        <v>0.16107887499345</v>
       </c>
       <c r="D23">
-        <v>0.2689214400470235</v>
+        <v>0.4190807680149078</v>
       </c>
       <c r="E23">
-        <v>0.03223896783345204</v>
+        <v>0.08934928535418329</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008637122600081677</v>
+        <v>0.002774741806185552</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02851675019574174</v>
+        <v>0.01983771485456032</v>
       </c>
       <c r="K23">
-        <v>3.768054145321457</v>
+        <v>3.551844059425832</v>
       </c>
       <c r="L23">
-        <v>0.3513668073107539</v>
+        <v>0.5576630180190847</v>
       </c>
       <c r="M23">
-        <v>0.744236148141205</v>
+        <v>0.8844068906299682</v>
       </c>
       <c r="N23">
-        <v>7.320417581057882</v>
+        <v>8.564257190611215</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.465114356267918</v>
+        <v>4.087327118606197</v>
       </c>
       <c r="C24">
-        <v>0.278897286707263</v>
+        <v>0.1498480858269318</v>
       </c>
       <c r="D24">
-        <v>0.2440928829089302</v>
+        <v>0.4163566786166655</v>
       </c>
       <c r="E24">
-        <v>0.03170027497383643</v>
+        <v>0.08970138189589072</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008801835686317868</v>
+        <v>0.00278347748705272</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02478451923822789</v>
+        <v>0.01872483878267417</v>
       </c>
       <c r="K24">
-        <v>3.284178531935595</v>
+        <v>3.464017329331739</v>
       </c>
       <c r="L24">
-        <v>0.319293820498558</v>
+        <v>0.5543267071722795</v>
       </c>
       <c r="M24">
-        <v>0.6591627495120633</v>
+        <v>0.8710742140238636</v>
       </c>
       <c r="N24">
-        <v>6.89088714973434</v>
+        <v>8.423597569486674</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.976923519383774</v>
+        <v>4.005959150354272</v>
       </c>
       <c r="C25">
-        <v>0.2269102440811253</v>
+        <v>0.138069758723816</v>
       </c>
       <c r="D25">
-        <v>0.2191296787883346</v>
+        <v>0.4140275705303083</v>
       </c>
       <c r="E25">
-        <v>0.03124085860256631</v>
+        <v>0.09015597843160794</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008983064531918998</v>
+        <v>0.002793593157406062</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02090832624710615</v>
+        <v>0.01750365813197519</v>
       </c>
       <c r="K25">
-        <v>2.791602801189981</v>
+        <v>3.375787488757709</v>
       </c>
       <c r="L25">
-        <v>0.2871501982951941</v>
+        <v>0.5515378632368311</v>
       </c>
       <c r="M25">
-        <v>0.5729476664876003</v>
+        <v>0.8581693247497597</v>
       </c>
       <c r="N25">
-        <v>6.449286071800429</v>
+        <v>8.273869122516402</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_185/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.952283258933164</v>
+        <v>2.637490320761401</v>
       </c>
       <c r="C2">
-        <v>0.1296783303549205</v>
+        <v>0.1904223998696466</v>
       </c>
       <c r="D2">
-        <v>0.4128363259067811</v>
+        <v>0.2020144115083866</v>
       </c>
       <c r="E2">
-        <v>0.09055545280074817</v>
+        <v>0.03099644864147688</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002801644214518938</v>
+        <v>0.000912061736925545</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01658575960190589</v>
+        <v>0.01813889291591053</v>
       </c>
       <c r="K2">
-        <v>3.316374157980533</v>
+        <v>2.448419627498765</v>
       </c>
       <c r="L2">
-        <v>0.5501803914211365</v>
+        <v>0.2651844561664802</v>
       </c>
       <c r="M2">
-        <v>0.8499319006861441</v>
+        <v>0.5132218754755442</v>
       </c>
       <c r="N2">
-        <v>8.165284513734179</v>
+        <v>6.138676543378295</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.919779709163947</v>
+        <v>2.417546848203983</v>
       </c>
       <c r="C3">
-        <v>0.1241628124187883</v>
+        <v>0.1665441692526457</v>
       </c>
       <c r="D3">
-        <v>0.4123556489398794</v>
+        <v>0.1910775866620043</v>
       </c>
       <c r="E3">
-        <v>0.09086679630885008</v>
+        <v>0.03088480975584673</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002807480157546356</v>
+        <v>0.0009216856009863772</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01595156025396527</v>
+        <v>0.01629629221018192</v>
       </c>
       <c r="K3">
-        <v>3.279550891548979</v>
+        <v>2.225572971401988</v>
       </c>
       <c r="L3">
-        <v>0.5496944244020483</v>
+        <v>0.2511870681049828</v>
       </c>
       <c r="M3">
-        <v>0.8451357118398874</v>
+        <v>0.4746557029471106</v>
       </c>
       <c r="N3">
-        <v>8.092704647791493</v>
+        <v>5.935483770795884</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.90172865468341</v>
+        <v>2.28678836287466</v>
       </c>
       <c r="C4">
-        <v>0.1208596785845941</v>
+        <v>0.1522254586888891</v>
       </c>
       <c r="D4">
-        <v>0.4122216901707532</v>
+        <v>0.1846523832605271</v>
       </c>
       <c r="E4">
-        <v>0.0910780728974947</v>
+        <v>0.03084159049555613</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00281125188906766</v>
+        <v>0.0009277567035378597</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01555603837699771</v>
+        <v>0.01517652331639496</v>
       </c>
       <c r="K4">
-        <v>3.258633361046265</v>
+        <v>2.09284343591213</v>
       </c>
       <c r="L4">
-        <v>0.549610162436224</v>
+        <v>0.2429813854610359</v>
       </c>
       <c r="M4">
-        <v>0.8425781711422715</v>
+        <v>0.4517938814997891</v>
       </c>
       <c r="N4">
-        <v>8.048630425926319</v>
+        <v>5.813818682800161</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.894851773449716</v>
+        <v>2.234488567243773</v>
       </c>
       <c r="C5">
-        <v>0.1195344658118103</v>
+        <v>0.1464663499980645</v>
       </c>
       <c r="D5">
-        <v>0.4122076578791649</v>
+        <v>0.1821020672973361</v>
       </c>
       <c r="E5">
-        <v>0.09116923855043346</v>
+        <v>0.030830171826568</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002812836447537163</v>
+        <v>0.0009302732436060612</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01539330295693553</v>
+        <v>0.01472241263966367</v>
       </c>
       <c r="K5">
-        <v>3.250534314779969</v>
+        <v>2.039691704518731</v>
       </c>
       <c r="L5">
-        <v>0.5496296987278839</v>
+        <v>0.2397285811497269</v>
       </c>
       <c r="M5">
-        <v>0.8416333313432958</v>
+        <v>0.4426664721250404</v>
       </c>
       <c r="N5">
-        <v>8.030792341145144</v>
+        <v>5.764949197342446</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.893738799751986</v>
+        <v>2.225861167937495</v>
       </c>
       <c r="C6">
-        <v>0.1193156700963272</v>
+        <v>0.1455143534772816</v>
       </c>
       <c r="D6">
-        <v>0.4122077782057403</v>
+        <v>0.1816825601044059</v>
       </c>
       <c r="E6">
-        <v>0.09118468302503135</v>
+        <v>0.03082864499606952</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002813102438798022</v>
+        <v>0.0009306937307035711</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01536618630131237</v>
+        <v>0.01464712137147473</v>
       </c>
       <c r="K6">
-        <v>3.249215130910812</v>
+        <v>2.030919863666014</v>
       </c>
       <c r="L6">
-        <v>0.5496361974991544</v>
+        <v>0.2391937713575132</v>
       </c>
       <c r="M6">
-        <v>0.8414823223546435</v>
+        <v>0.4411618230883647</v>
       </c>
       <c r="N6">
-        <v>8.027837719570897</v>
+        <v>5.756875439323949</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.901633971285776</v>
+        <v>2.286079157080906</v>
       </c>
       <c r="C7">
-        <v>0.1208417220931466</v>
+        <v>0.1521474950408077</v>
       </c>
       <c r="D7">
-        <v>0.4122213366739231</v>
+        <v>0.1846177196770498</v>
       </c>
       <c r="E7">
-        <v>0.091079281850309</v>
+        <v>0.03084141164274712</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002811273066102433</v>
+        <v>0.000927790467947328</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01555384999792153</v>
+        <v>0.01517039099298678</v>
       </c>
       <c r="K7">
-        <v>3.258522414224785</v>
+        <v>2.092122939509522</v>
       </c>
       <c r="L7">
-        <v>0.5496102077351708</v>
+        <v>0.2429371566655831</v>
       </c>
       <c r="M7">
-        <v>0.8425650344462667</v>
+        <v>0.4516700420383302</v>
       </c>
       <c r="N7">
-        <v>8.048389360228668</v>
+        <v>5.813156823591072</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.940680200131681</v>
+        <v>2.560705524233185</v>
       </c>
       <c r="C8">
-        <v>0.1277591831280063</v>
+        <v>0.1821116072424189</v>
       </c>
       <c r="D8">
-        <v>0.4126371507262263</v>
+        <v>0.1981800960651583</v>
       </c>
       <c r="E8">
-        <v>0.09065863715477374</v>
+        <v>0.03095258845310056</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00280361743547976</v>
+        <v>0.0009153475334313654</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01636834714103941</v>
+        <v>0.01750070946624049</v>
       </c>
       <c r="K8">
-        <v>3.303325986838274</v>
+        <v>2.370672090485897</v>
       </c>
       <c r="L8">
-        <v>0.5499684050434794</v>
+        <v>0.2602732653940336</v>
       </c>
       <c r="M8">
-        <v>0.8481977653880435</v>
+        <v>0.4997439788563653</v>
       </c>
       <c r="N8">
-        <v>8.140156793295091</v>
+        <v>6.067930048725771</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.032397241760975</v>
+        <v>3.137913946988135</v>
       </c>
       <c r="C9">
-        <v>0.1419931556691552</v>
+        <v>0.2441052770704459</v>
       </c>
       <c r="D9">
-        <v>0.4147307766628501</v>
+        <v>0.2273236877576892</v>
       </c>
       <c r="E9">
-        <v>0.08999281629069333</v>
+        <v>0.03138037320637466</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00279009248910179</v>
+        <v>0.0008921443142679841</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01791786871955736</v>
+        <v>0.02219819237817688</v>
       </c>
       <c r="K9">
-        <v>3.404642897330149</v>
+        <v>2.954145793663429</v>
       </c>
       <c r="L9">
-        <v>0.552369154997578</v>
+        <v>0.2976884998674052</v>
       </c>
       <c r="M9">
-        <v>0.8623196122187338</v>
+        <v>0.6013436193705957</v>
       </c>
       <c r="N9">
-        <v>8.324043949240632</v>
+        <v>6.595526865040341</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.109061144341638</v>
+        <v>3.592825386033553</v>
       </c>
       <c r="C10">
-        <v>0.1528695793555244</v>
+        <v>0.2924329452512779</v>
       </c>
       <c r="D10">
-        <v>0.4170480962009577</v>
+        <v>0.2506732234153333</v>
       </c>
       <c r="E10">
-        <v>0.08959994715350561</v>
+        <v>0.03183635154592324</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002781052219978708</v>
+        <v>0.0008756903341648506</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01902849221183089</v>
+        <v>0.02578343977060982</v>
       </c>
       <c r="K10">
-        <v>3.487341488136622</v>
+        <v>3.412901641113024</v>
       </c>
       <c r="L10">
-        <v>0.5551684916009947</v>
+        <v>0.3277848649208721</v>
       </c>
       <c r="M10">
-        <v>0.8745765537953787</v>
+        <v>0.6817635217541067</v>
       </c>
       <c r="N10">
-        <v>8.461616241506078</v>
+        <v>7.005546978682162</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.145963521021713</v>
+        <v>3.808341771169637</v>
       </c>
       <c r="C11">
-        <v>0.157910946748558</v>
+        <v>0.3152319403751278</v>
       </c>
       <c r="D11">
-        <v>0.4182715475174632</v>
+        <v>0.2618149655402107</v>
       </c>
       <c r="E11">
-        <v>0.08944199746583692</v>
+        <v>0.03207811241333758</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002777132005531268</v>
+        <v>0.000868299145415143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01952798437619663</v>
+        <v>0.02745812575997419</v>
       </c>
       <c r="K11">
-        <v>3.526770639874485</v>
+        <v>3.630032943890114</v>
       </c>
       <c r="L11">
-        <v>0.5566669772687476</v>
+        <v>0.3421772589798309</v>
       </c>
       <c r="M11">
-        <v>0.8805627496737216</v>
+        <v>0.7199391735613574</v>
       </c>
       <c r="N11">
-        <v>8.524754685357948</v>
+        <v>7.198303550543699</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.160229737542863</v>
+        <v>3.891364730749444</v>
       </c>
       <c r="C12">
-        <v>0.1598336236881153</v>
+        <v>0.3240027040125142</v>
       </c>
       <c r="D12">
-        <v>0.4187591751703934</v>
+        <v>0.266118260559125</v>
       </c>
       <c r="E12">
-        <v>0.08938516147386721</v>
+        <v>0.03217493985073716</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002775674997118719</v>
+        <v>0.000865510489042737</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01971632512633548</v>
+        <v>0.02809998514007006</v>
       </c>
       <c r="K12">
-        <v>3.541962475806315</v>
+        <v>3.713651328191247</v>
       </c>
       <c r="L12">
-        <v>0.557266776048067</v>
+        <v>0.3477410673171022</v>
       </c>
       <c r="M12">
-        <v>0.8828886830557749</v>
+        <v>0.7346565742796116</v>
       </c>
       <c r="N12">
-        <v>8.548744594714321</v>
+        <v>7.272322456285167</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.157144253246145</v>
+        <v>3.873418373840423</v>
       </c>
       <c r="C13">
-        <v>0.1594189325026321</v>
+        <v>0.3221073069089755</v>
       </c>
       <c r="D13">
-        <v>0.4186530737560332</v>
+        <v>0.2651875632762568</v>
       </c>
       <c r="E13">
-        <v>0.08939726992100816</v>
+        <v>0.03215384569225144</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002775987569637373</v>
+        <v>0.0008661106776198484</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01967579812763631</v>
+        <v>0.02796138269859938</v>
       </c>
       <c r="K13">
-        <v>3.538679028023466</v>
+        <v>3.695577396068074</v>
       </c>
       <c r="L13">
-        <v>0.5571361597566806</v>
+        <v>0.3465375208446773</v>
       </c>
       <c r="M13">
-        <v>0.8823851224518222</v>
+        <v>0.7314747481664341</v>
       </c>
       <c r="N13">
-        <v>8.543574334514176</v>
+        <v>7.256333281639911</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.14713135427445</v>
+        <v>3.815142723127508</v>
       </c>
       <c r="C14">
-        <v>0.1580688526526046</v>
+        <v>0.3159506397967675</v>
       </c>
       <c r="D14">
-        <v>0.4183111773190404</v>
+        <v>0.262167255381442</v>
       </c>
       <c r="E14">
-        <v>0.08943726194728718</v>
+        <v>0.03208597057889584</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002777011586600574</v>
+        <v>0.0008680695360722912</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01954349533059485</v>
+        <v>0.02751076902764638</v>
       </c>
       <c r="K14">
-        <v>3.52801524888082</v>
+        <v>3.636883184576845</v>
       </c>
       <c r="L14">
-        <v>0.5567156746720201</v>
+        <v>0.3426326379939297</v>
       </c>
       <c r="M14">
-        <v>0.8807529209312293</v>
+        <v>0.7211445506616059</v>
       </c>
       <c r="N14">
-        <v>8.526726726763286</v>
+        <v>7.204371763874974</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.141036218963279</v>
+        <v>3.779636732773554</v>
       </c>
       <c r="C15">
-        <v>0.1572436682618843</v>
+        <v>0.312198026295107</v>
       </c>
       <c r="D15">
-        <v>0.4181049244942301</v>
+        <v>0.2603284890876978</v>
       </c>
       <c r="E15">
-        <v>0.08946214549296272</v>
+        <v>0.03204509330993055</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002777642402179791</v>
+        <v>0.0008692706213950796</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01946235162899868</v>
+        <v>0.02723580181611496</v>
       </c>
       <c r="K15">
-        <v>3.521517371281277</v>
+        <v>3.601118818886846</v>
       </c>
       <c r="L15">
-        <v>0.5564623287802419</v>
+        <v>0.3402560047810397</v>
       </c>
       <c r="M15">
-        <v>0.8797608478784866</v>
+        <v>0.7148520368143068</v>
       </c>
       <c r="N15">
-        <v>8.516417620055108</v>
+        <v>7.172681594989456</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.106690331470247</v>
+        <v>3.578928170994175</v>
       </c>
       <c r="C16">
-        <v>0.1525420115250995</v>
+        <v>0.2909610288998579</v>
       </c>
       <c r="D16">
-        <v>0.4169715463972068</v>
+        <v>0.2499563226754447</v>
       </c>
       <c r="E16">
-        <v>0.0896106865633044</v>
+        <v>0.03182127092623865</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00278131227065477</v>
+        <v>0.0008761749836095981</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01899573539953181</v>
+        <v>0.02567499083358626</v>
       </c>
       <c r="K16">
-        <v>3.484801165804924</v>
+        <v>3.398896449064807</v>
       </c>
       <c r="L16">
-        <v>0.5550750899796242</v>
+        <v>0.3268594639774705</v>
       </c>
       <c r="M16">
-        <v>0.8741936068820024</v>
+        <v>0.6793033471994931</v>
       </c>
       <c r="N16">
-        <v>8.457501252859515</v>
+        <v>6.993086067660585</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.086139917788842</v>
+        <v>3.458116130931501</v>
       </c>
       <c r="C17">
-        <v>0.1496817885283974</v>
+        <v>0.2781549415398104</v>
       </c>
       <c r="D17">
-        <v>0.4163196069861357</v>
+        <v>0.2437328169831261</v>
       </c>
       <c r="E17">
-        <v>0.08970712358716604</v>
+        <v>0.03169298586506031</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002783612746464328</v>
+        <v>0.000880432415459341</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01870802561606411</v>
+        <v>0.02472962592993611</v>
       </c>
       <c r="K17">
-        <v>3.462740831486542</v>
+        <v>3.277123505387465</v>
       </c>
       <c r="L17">
-        <v>0.554281699267122</v>
+        <v>0.3188294067999209</v>
       </c>
       <c r="M17">
-        <v>0.8708834583621368</v>
+        <v>0.6579247842510441</v>
       </c>
       <c r="N17">
-        <v>8.42150095855385</v>
+        <v>6.884594368319284</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.074510676034208</v>
+        <v>3.389423392583808</v>
       </c>
       <c r="C18">
-        <v>0.148045467042067</v>
+        <v>0.2708645281593647</v>
       </c>
       <c r="D18">
-        <v>0.4159605636821198</v>
+        <v>0.2402015304173659</v>
       </c>
       <c r="E18">
-        <v>0.08976454704810877</v>
+        <v>0.03162240856908838</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002784954023879151</v>
+        <v>0.0008828902250460491</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01854200152723351</v>
+        <v>0.02418989956922601</v>
       </c>
       <c r="K18">
-        <v>3.450222551553338</v>
+        <v>3.20786525673202</v>
       </c>
       <c r="L18">
-        <v>0.5538465453113588</v>
+        <v>0.3142758887963026</v>
       </c>
       <c r="M18">
-        <v>0.8690181777167254</v>
+        <v>0.6457761157744812</v>
       </c>
       <c r="N18">
-        <v>8.400846838655468</v>
+        <v>6.822771165149334</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.070605971357168</v>
+        <v>3.366296708955701</v>
       </c>
       <c r="C19">
-        <v>0.1474929439109474</v>
+        <v>0.2684084829361097</v>
       </c>
       <c r="D19">
-        <v>0.415841734993748</v>
+        <v>0.239013927413751</v>
       </c>
       <c r="E19">
-        <v>0.08978432581081996</v>
+        <v>0.03159905375508032</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002785411271413802</v>
+        <v>0.0008837240440550053</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0184856951316803</v>
+        <v>0.0240078086733746</v>
       </c>
       <c r="K19">
-        <v>3.446013294650697</v>
+        <v>3.184544811447836</v>
       </c>
       <c r="L19">
-        <v>0.5537028481998618</v>
+        <v>0.3127449715589563</v>
       </c>
       <c r="M19">
-        <v>0.8683932583471119</v>
+        <v>0.6416872424568894</v>
       </c>
       <c r="N19">
-        <v>8.393862666935945</v>
+        <v>6.801934541246453</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.088307792327953</v>
+        <v>3.47089326351437</v>
       </c>
       <c r="C20">
-        <v>0.1499853519304395</v>
+        <v>0.279510239719599</v>
       </c>
       <c r="D20">
-        <v>0.4163873579202431</v>
+        <v>0.2443902556756825</v>
       </c>
       <c r="E20">
-        <v>0.08969665539662763</v>
+        <v>0.03170630759264093</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002783365984276483</v>
+        <v>0.000879978290652961</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01873870867305882</v>
+        <v>0.02482983576378217</v>
       </c>
       <c r="K20">
-        <v>3.465071567337873</v>
+        <v>3.29000423399043</v>
       </c>
       <c r="L20">
-        <v>0.5543639647252121</v>
+        <v>0.3196773885371869</v>
       </c>
       <c r="M20">
-        <v>0.8712318308663498</v>
+        <v>0.6601850610499227</v>
       </c>
       <c r="N20">
-        <v>8.425327833144252</v>
+        <v>6.896082751858614</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.150064453934704</v>
+        <v>3.832219844376255</v>
       </c>
       <c r="C21">
-        <v>0.1584650329092483</v>
+        <v>0.3177551020783369</v>
       </c>
       <c r="D21">
-        <v>0.4184109402702632</v>
+        <v>0.2630520280403914</v>
       </c>
       <c r="E21">
-        <v>0.0894254346302148</v>
+        <v>0.03210576096937068</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002776710063091518</v>
+        <v>0.0008674939224371232</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0195823775966204</v>
+        <v>0.02764290427752059</v>
       </c>
       <c r="K21">
-        <v>3.531140373451365</v>
+        <v>3.654083656535533</v>
       </c>
       <c r="L21">
-        <v>0.5568383032835555</v>
+        <v>0.3437763994668188</v>
       </c>
       <c r="M21">
-        <v>0.8812307337993843</v>
+        <v>0.7241714163081312</v>
       </c>
       <c r="N21">
-        <v>8.531673079714437</v>
+        <v>7.219605157121805</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.192128774742343</v>
+        <v>4.076696035743112</v>
       </c>
       <c r="C22">
-        <v>0.1640864602659065</v>
+        <v>0.3435619351220964</v>
       </c>
       <c r="D22">
-        <v>0.419875297135718</v>
+        <v>0.275744394314799</v>
       </c>
       <c r="E22">
-        <v>0.08926551862386845</v>
+        <v>0.03239778172682151</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002772520205481997</v>
+        <v>0.0008593924483524251</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02012907428054334</v>
+        <v>0.02952704062066758</v>
       </c>
       <c r="K22">
-        <v>3.575841072545927</v>
+        <v>3.900266988625162</v>
       </c>
       <c r="L22">
-        <v>0.5586440132258446</v>
+        <v>0.3601965935923346</v>
       </c>
       <c r="M22">
-        <v>0.8881100576827947</v>
+        <v>0.7675302611573969</v>
       </c>
       <c r="N22">
-        <v>8.601646893559519</v>
+        <v>7.437099654591918</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.169522270709479</v>
+        <v>3.945387103588246</v>
       </c>
       <c r="C23">
-        <v>0.16107887499345</v>
+        <v>0.3297066758141511</v>
       </c>
       <c r="D23">
-        <v>0.4190807680149078</v>
+        <v>0.2689214400469666</v>
       </c>
       <c r="E23">
-        <v>0.08934928535418329</v>
+        <v>0.03223896783344671</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002774741806185552</v>
+        <v>0.0008637122599736506</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01983771485456032</v>
+        <v>0.0285167501958874</v>
       </c>
       <c r="K23">
-        <v>3.551844059425832</v>
+        <v>3.768054145321628</v>
       </c>
       <c r="L23">
-        <v>0.5576630180190847</v>
+        <v>0.3513668073108676</v>
       </c>
       <c r="M23">
-        <v>0.8844068906299682</v>
+        <v>0.7442361481411908</v>
       </c>
       <c r="N23">
-        <v>8.564257190611215</v>
+        <v>7.320417581057768</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.087327118606197</v>
+        <v>3.465114356268202</v>
       </c>
       <c r="C24">
-        <v>0.1498480858269318</v>
+        <v>0.2788972867075188</v>
       </c>
       <c r="D24">
-        <v>0.4163566786166655</v>
+        <v>0.2440928829087028</v>
       </c>
       <c r="E24">
-        <v>0.08970138189589072</v>
+        <v>0.03170027497384531</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00278347748705272</v>
+        <v>0.00088018356863474</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01872483878267417</v>
+        <v>0.02478451923837</v>
       </c>
       <c r="K24">
-        <v>3.464017329331739</v>
+        <v>3.284178531935595</v>
       </c>
       <c r="L24">
-        <v>0.5543267071722795</v>
+        <v>0.3192938204984728</v>
       </c>
       <c r="M24">
-        <v>0.8710742140238636</v>
+        <v>0.6591627495120491</v>
       </c>
       <c r="N24">
-        <v>8.423597569486674</v>
+        <v>6.890887149734198</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.005959150354272</v>
+        <v>2.976923519383774</v>
       </c>
       <c r="C25">
-        <v>0.138069758723816</v>
+        <v>0.2269102440808979</v>
       </c>
       <c r="D25">
-        <v>0.4140275705303083</v>
+        <v>0.2191296787882209</v>
       </c>
       <c r="E25">
-        <v>0.09015597843160794</v>
+        <v>0.03124085860259651</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002793593157406062</v>
+        <v>0.0008983064531897789</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01750365813197519</v>
+        <v>0.02090832624696404</v>
       </c>
       <c r="K25">
-        <v>3.375787488757709</v>
+        <v>2.791602801189953</v>
       </c>
       <c r="L25">
-        <v>0.5515378632368311</v>
+        <v>0.2871501982952509</v>
       </c>
       <c r="M25">
-        <v>0.8581693247497597</v>
+        <v>0.5729476664876003</v>
       </c>
       <c r="N25">
-        <v>8.273869122516402</v>
+        <v>6.449286071800458</v>
       </c>
       <c r="O25">
         <v>0</v>
